--- a/www/plys/Tern/NFsp.xlsx
+++ b/www/plys/Tern/NFsp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\RockR!\plys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727EBA08-3964-4A74-BBC8-BFE06AEC93B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{B8D10DB5-6AE1-4917-8F13-AE390C6E951B}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{B8D10DB5-6AE1-4917-8F13-AE390C6E951B}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>Normative Quartz-rich Intrusive Igneous Rock Classification</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
   </si>
 </sst>
 </file>
@@ -433,16 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2646E514-4E2C-4300-9552-6295CA8B8684}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -476,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>17.5</v>
       </c>
@@ -493,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15.5</v>
       </c>
@@ -510,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17.5</v>
       </c>
@@ -527,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -544,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31</v>
       </c>
@@ -561,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -578,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>17.5</v>
       </c>
@@ -595,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15.5</v>
       </c>
@@ -612,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -629,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15.5</v>
       </c>
@@ -646,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17.5</v>
       </c>
@@ -663,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -680,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -697,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>30</v>
       </c>
@@ -714,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
@@ -731,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>31</v>
       </c>
@@ -748,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -765,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30</v>
       </c>
@@ -782,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -799,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -816,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17.5</v>
       </c>
@@ -833,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -850,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17.5</v>
       </c>
@@ -867,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>19</v>
       </c>
@@ -884,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -914,9 +924,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -942,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -968,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1053,15 +1063,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5165A3BD-1533-4200-A965-915AD95423FE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,10 +1085,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1086,6 +1108,15 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
